--- a/LLMMemoryEval/results_t.xlsx
+++ b/LLMMemoryEval/results_t.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,33 @@
       <c r="J1" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -470,47 +497,92 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>phi2</t>
+          <t>gemma_2b</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>phi2</t>
+          <t>gemma_2b</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>phi2</t>
+          <t>gemma_2b</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>phi2</t>
+          <t>gemma_2b</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>phi2</t>
+          <t>gemma_2b</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>phi2</t>
+          <t>gemma_2b</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>phi2</t>
+          <t>gemma_2b</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>phi2</t>
+          <t>gemma_2b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>phi2</t>
+          <t>gemma_2b</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>gemma_7b</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>gemma_7b</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>gemma_7b</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>gemma_7b</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>gemma_7b</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>gemma_7b</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>gemma_7b</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>gemma_7b</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>gemma_7b</t>
         </is>
       </c>
     </row>
@@ -565,6 +637,51 @@
           <t>5</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -574,47 +691,92 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>phi2-1-0</t>
+          <t>gemma_2b-1-0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>phi2-2-0</t>
+          <t>gemma_2b-2-0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>phi2-3-0</t>
+          <t>gemma_2b-3-0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>phi2-4-0</t>
+          <t>gemma_2b-4-0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>phi2-5-0</t>
+          <t>gemma_2b-5-0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>phi2-5-1</t>
+          <t>gemma_2b-5-1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>phi2-5-2</t>
+          <t>gemma_2b-5-2</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>phi2-5-3</t>
+          <t>gemma_2b-5-3</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>phi2-5-4</t>
+          <t>gemma_2b-5-4</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>gemma_7b-1-0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>gemma_7b-2-0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>gemma_7b-3-0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>gemma_7b-4-0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>gemma_7b-5-0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>gemma_7b-5-1</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>gemma_7b-5-2</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>gemma_7b-5-3</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>gemma_7b-5-4</t>
         </is>
       </c>
     </row>
@@ -625,31 +787,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.345</v>
+        <v>0.828</v>
       </c>
       <c r="C5" t="n">
-        <v>0.329</v>
+        <v>0.68</v>
       </c>
       <c r="D5" t="n">
-        <v>0.387</v>
+        <v>0.622</v>
       </c>
       <c r="E5" t="n">
-        <v>0.354</v>
+        <v>0.624</v>
       </c>
       <c r="F5" t="n">
-        <v>0.357</v>
+        <v>0.614</v>
       </c>
       <c r="G5" t="n">
-        <v>0.358</v>
+        <v>0.53</v>
       </c>
       <c r="H5" t="n">
-        <v>0.36</v>
+        <v>0.536</v>
       </c>
       <c r="I5" t="n">
-        <v>0.351</v>
+        <v>0.519</v>
       </c>
       <c r="J5" t="n">
-        <v>0.362</v>
+        <v>0.57</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.854</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.701</v>
       </c>
     </row>
     <row r="6">
@@ -659,31 +848,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.635</v>
+        <v>0.906</v>
       </c>
       <c r="C6" t="n">
-        <v>0.626</v>
+        <v>0.83</v>
       </c>
       <c r="D6" t="n">
-        <v>0.653</v>
+        <v>0.795</v>
       </c>
       <c r="E6" t="n">
-        <v>0.624</v>
+        <v>0.795</v>
       </c>
       <c r="F6" t="n">
-        <v>0.621</v>
+        <v>0.79</v>
       </c>
       <c r="G6" t="n">
-        <v>0.628</v>
+        <v>0.742</v>
       </c>
       <c r="H6" t="n">
-        <v>0.627</v>
+        <v>0.747</v>
       </c>
       <c r="I6" t="n">
-        <v>0.624</v>
+        <v>0.74</v>
       </c>
       <c r="J6" t="n">
-        <v>0.632</v>
+        <v>0.764</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.838</v>
       </c>
     </row>
     <row r="7">
@@ -694,47 +910,92 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{'A': 0.226, 'B': 0.226, 'C': 0.592}</t>
+          <t>{'A': 0.905, 'B': 0.85, 'C': 0.723}</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'A': 0.225, 'B': 0.258, 'C': 0.5}</t>
+          <t>{'A': 0.767, 'B': 0.806, 'C': 0.47}</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'A': 0.33, 'B': 0.262, 'C': 0.563}</t>
+          <t>{'A': 0.719, 'B': 0.723, 'C': 0.429}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'A': 0.385, 'B': 0.246, 'C': 0.443}</t>
+          <t>{'A': 0.709, 'B': 0.694, 'C': 0.455}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'A': 0.482, 'B': 0.329, 'C': 0.262}</t>
+          <t>{'A': 0.72, 'B': 0.704, 'C': 0.405}</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'A': 0.425, 'B': 0.358, 'C': 0.29}</t>
+          <t>{'A': 0.771, 'B': 0.59, 'C': 0.216}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>{'A': 0.461, 'B': 0.345, 'C': 0.274}</t>
+          <t>{'A': 0.413, 'B': 0.892, 'C': 0.259}</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>{'A': 0.404, 'B': 0.364, 'C': 0.284}</t>
+          <t>{'A': 0.389, 'B': 0.623, 'C': 0.534}</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{'A': 0.461, 'B': 0.337, 'C': 0.29}</t>
+          <t>{'A': 0.419, 'B': 0.717, 'C': 0.558}</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>{'A': 0.997, 'B': 0.869, 'C': 0.682}</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>{'A': 0.843, 'B': 0.595, 'C': 0.424}</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>{'A': 0.838, 'B': 0.557, 'C': 0.411}</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>{'A': 0.75, 'B': 0.579, 'C': 0.455}</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>{'A': 0.744, 'B': 0.544, 'C': 0.451}</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>{'A': 0.708, 'B': 0.606, 'C': 0.329}</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>{'A': 0.729, 'B': 0.566, 'C': 0.287}</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>{'A': 0.828, 'B': 0.536, 'C': 0.418}</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>{'A': 0.973, 'B': 0.625, 'C': 0.512}</t>
         </is>
       </c>
     </row>
@@ -746,47 +1007,189 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{'hotel': 0.141, 'train': 0.158, 'attraction': 0.175, 'restaurant': 1.0}</t>
+          <t>{'hotel': 0.888, 'train': 0.83, 'attraction': 0.611, 'restaurant': 0.961}</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'hotel': 0.13, 'train': 0.18, 'attraction': 0.148, 'restaurant': 1.0}</t>
+          <t>{'hotel': 0.706, 'train': 0.737, 'attraction': 0.41, 'restaurant': 0.801}</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'hotel': 0.084, 'train': 0.282, 'attraction': 0.192, 'restaurant': 1.0}</t>
+          <t>{'hotel': 0.653, 'train': 0.72, 'attraction': 0.324, 'restaurant': 0.721}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'hotel': 0.042, 'train': 0.282, 'attraction': 0.212, 'restaurant': 0.982}</t>
+          <t>{'hotel': 0.635, 'train': 0.748, 'attraction': 0.29, 'restaurant': 0.751}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'hotel': 0.269, 'train': 0.271, 'attraction': 0.249, 'restaurant': 0.689}</t>
+          <t>{'hotel': 0.58, 'train': 0.775, 'attraction': 0.271, 'restaurant': 0.738}</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'hotel': 0.238, 'train': 0.295, 'attraction': 0.206, 'restaurant': 0.712}</t>
+          <t>{'hotel': 0.516, 'train': 0.702, 'attraction': 0.261, 'restaurant': 0.551}</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>{'hotel': 0.237, 'train': 0.305, 'attraction': 0.267, 'restaurant': 0.68}</t>
+          <t>{'hotel': 0.558, 'train': 0.563, 'attraction': 0.277, 'restaurant': 0.712}</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>{'hotel': 0.256, 'train': 0.242, 'attraction': 0.249, 'restaurant': 0.689}</t>
+          <t>{'hotel': 0.533, 'train': 0.636, 'attraction': 0.151, 'restaurant': 0.651}</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{'hotel': 0.287, 'train': 0.289, 'attraction': 0.213, 'restaurant': 0.693}</t>
+          <t>{'hotel': 0.582, 'train': 0.714, 'attraction': 0.168, 'restaurant': 0.698}</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>{'hotel': 0.771, 'train': 0.921, 'attraction': 0.758, 'restaurant': 0.93}</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>{'hotel': 0.429, 'train': 0.731, 'attraction': 0.55, 'restaurant': 0.688}</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>{'hotel': 0.36, 'train': 0.744, 'attraction': 0.516, 'restaurant': 0.7}</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>{'hotel': 0.315, 'train': 0.76, 'attraction': 0.53, 'restaurant': 0.747}</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>{'hotel': 0.269, 'train': 0.732, 'attraction': 0.529, 'restaurant': 0.72}</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>{'hotel': 0.254, 'train': 0.708, 'attraction': 0.505, 'restaurant': 0.686}</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>{'hotel': 0.255, 'train': 0.554, 'attraction': 0.573, 'restaurant': 0.797}</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>{'hotel': 0.322, 'train': 0.595, 'attraction': 0.663, 'restaurant': 0.801}</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>{'hotel': 0.475, 'train': 0.776, 'attraction': 0.757, 'restaurant': 0.8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>acc_C</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>{'A': 0.451, 'B': 0.289, 'C': 0.26}</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>{'A': 0.403, 'B': 0.385, 'C': 0.212}</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{'A': 0.432, 'B': 0.354, 'C': 0.214}</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>{'A': 0.397, 'B': 0.371, 'C': 0.232}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>{'A': 0.395, 'B': 0.395, 'C': 0.21}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{'A': 0.515, 'B': 0.36, 'C': 0.125}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{'A': 0.232, 'B': 0.626, 'C': 0.143}</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>{'A': 0.214, 'B': 0.411, 'C': 0.374}</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>{'A': 0.215, 'B': 0.421, 'C': 0.364}</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>{'A': 0.496, 'B': 0.281, 'C': 0.223}</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>{'A': 0.504, 'B': 0.291, 'C': 0.205}</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>{'A': 0.531, 'B': 0.272, 'C': 0.198}</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>{'A': 0.465, 'B': 0.312, 'C': 0.223}</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>{'A': 0.469, 'B': 0.31, 'C': 0.22}</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>{'A': 0.454, 'B': 0.374, 'C': 0.172}</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>{'A': 0.495, 'B': 0.354, 'C': 0.151}</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>{'A': 0.512, 'B': 0.291, 'C': 0.197}</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>{'A': 0.562, 'B': 0.258, 'C': 0.18}</t>
         </is>
       </c>
     </row>
